--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1422467.074190577</v>
+        <v>-1429477.803306571</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>164.8931204633159</v>
       </c>
       <c r="V2" t="n">
-        <v>286.3466518760101</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>73.56694811696379</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922632835</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -835,7 +835,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>102.0192988591152</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.31664188964668</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -908,10 +908,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>193.6660763071993</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.0188891850026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>99.05197172941455</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>62.44065609585608</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1057,7 +1057,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>139.9616385060229</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.817639746825245</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>351.3122173779163</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.335341422566</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C10" t="n">
-        <v>94.33637535181988</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1300,19 +1300,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>120.0961968842569</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>256.6613887135648</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.56424265033682</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.6760693575994</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>100.3762579892371</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>95.54104599586225</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>119.6608089950316</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>58.87863166668978</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973565001</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167833</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196074</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380046</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667958</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644684</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883898</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541102</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.88205970103887</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656619</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872.0959742198254</v>
+        <v>1177.044215914795</v>
       </c>
       <c r="C2" t="n">
-        <v>872.0959742198254</v>
+        <v>1177.044215914795</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198254</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634776</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>259.7298875736958</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>773.3325661833842</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845421</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297166</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U2" t="n">
-        <v>1951.282367297166</v>
+        <v>1908.60363027822</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.043324998166</v>
+        <v>1566.496820981738</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.043324998166</v>
+        <v>1566.496820981738</v>
       </c>
       <c r="X2" t="n">
-        <v>1272.590719931222</v>
+        <v>1177.044215914795</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.590719931222</v>
+        <v>1177.044215914795</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>778.7327876102509</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>628.0785571703431</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>497.9895897918234</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475499</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475499</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653872</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1299.150416625693</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1109.843338975705</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>930.5291220512122</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>841.8928851089183</v>
+        <v>551.1729340100944</v>
       </c>
       <c r="C4" t="n">
-        <v>841.8928851089183</v>
+        <v>551.1729340100944</v>
       </c>
       <c r="D4" t="n">
-        <v>686.2597720114331</v>
+        <v>551.1729340100944</v>
       </c>
       <c r="E4" t="n">
-        <v>530.7009598706356</v>
+        <v>395.614121869297</v>
       </c>
       <c r="F4" t="n">
-        <v>530.7009598706356</v>
+        <v>395.614121869297</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>841.8928851089183</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>841.8928851089183</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>841.8928851089183</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>841.8928851089183</v>
+        <v>774.2849951934511</v>
       </c>
       <c r="V4" t="n">
-        <v>841.8928851089183</v>
+        <v>774.2849951934511</v>
       </c>
       <c r="W4" t="n">
-        <v>841.8928851089183</v>
+        <v>774.2849951934511</v>
       </c>
       <c r="X4" t="n">
-        <v>841.8928851089183</v>
+        <v>774.2849951934511</v>
       </c>
       <c r="Y4" t="n">
-        <v>841.8928851089183</v>
+        <v>551.1729340100944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>792.1386206129307</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="C5" t="n">
-        <v>792.1386206129307</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="D5" t="n">
-        <v>792.1386206129307</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>389.5550957294753</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>376.7010612998571</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>673.8990329354884</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354884</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238216</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>1529.016082672815</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="V5" t="n">
-        <v>1529.016082672815</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="W5" t="n">
-        <v>1529.016082672815</v>
+        <v>1656.039436076138</v>
       </c>
       <c r="X5" t="n">
-        <v>1529.016082672815</v>
+        <v>1656.039436076138</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.633366324328</v>
+        <v>1656.039436076138</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021442</v>
+        <v>703.184559508882</v>
       </c>
       <c r="C6" t="n">
-        <v>655.8134179021442</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D6" t="n">
-        <v>525.7244505236246</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475499</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475499</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653872</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1676.259436019971</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1453.719434391038</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1223.602188524324</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675983</v>
+        <v>1034.295110874336</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431056</v>
+        <v>854.9808939498433</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>537.5879443268054</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="C7" t="n">
-        <v>367.3828263927947</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="D7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="E7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>803.5672895059812</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>803.5672895059812</v>
+        <v>731.2274786654652</v>
       </c>
       <c r="U7" t="n">
-        <v>803.5672895059812</v>
+        <v>445.7886869073661</v>
       </c>
       <c r="V7" t="n">
-        <v>537.5879443268054</v>
+        <v>445.7886869073661</v>
       </c>
       <c r="W7" t="n">
-        <v>537.5879443268054</v>
+        <v>445.7886869073661</v>
       </c>
       <c r="X7" t="n">
-        <v>537.5879443268054</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.5879443268054</v>
+        <v>211.7083646903492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>600.8019744073591</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4811,13 +4811,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2158.239069296811</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>1787.240034265098</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X8" t="n">
-        <v>1397.787429198155</v>
+        <v>1206.082019499745</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.296720118756</v>
+        <v>809.5913104203457</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.6509845843718</v>
+        <v>854.2900019614187</v>
       </c>
       <c r="C10" t="n">
-        <v>544.3617165522305</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D10" t="n">
-        <v>388.7286034547452</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E10" t="n">
-        <v>233.1697913139477</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F10" t="n">
-        <v>233.1697913139477</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880363</v>
+        <v>1835.7043909011</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1514.325164550224</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1200.680310913086</v>
       </c>
       <c r="E11" t="n">
-        <v>815.124613155088</v>
+        <v>869.893061175824</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312597</v>
+        <v>524.7948978519955</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>183.4284174861934</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2751.985177299521</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299521</v>
+        <v>2806.753625320257</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>2489.097295399508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>2164.402861466303</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.5769064584761</v>
+        <v>509.0312489714505</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5769064584761</v>
+        <v>410.6224061836335</v>
       </c>
       <c r="D13" t="n">
-        <v>158.5769064584761</v>
+        <v>326.7855682323421</v>
       </c>
       <c r="E13" t="n">
-        <v>158.5769064584761</v>
+        <v>243.0230312377385</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>207.099553813156</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="V13" t="n">
-        <v>793.964469812792</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901635</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193404</v>
+        <v>773.7587785537208</v>
       </c>
       <c r="Y13" t="n">
-        <v>271.9886500035834</v>
+        <v>622.442992516558</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1405.326329274748</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C14" t="n">
-        <v>1303.936169689659</v>
+        <v>813.6365687735845</v>
       </c>
       <c r="D14" t="n">
-        <v>990.2913160525209</v>
+        <v>499.9917151364461</v>
       </c>
       <c r="E14" t="n">
-        <v>659.5040663152593</v>
+        <v>499.9917151364461</v>
       </c>
       <c r="F14" t="n">
-        <v>314.4059029914309</v>
+        <v>403.4856080699186</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5312,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2376.375563693905</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2058.719233773156</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1734.024799839951</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>327.9434040506006</v>
+        <v>326.1762814043711</v>
       </c>
       <c r="C16" t="n">
-        <v>327.9434040506006</v>
+        <v>326.1762814043711</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1065660993092</v>
+        <v>242.3394434530798</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993092</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="F16" t="n">
         <v>158.5769064584761</v>
@@ -5440,7 +5440,7 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245447</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>815.1733215891595</v>
+        <v>872.879564262819</v>
       </c>
       <c r="W16" t="n">
-        <v>603.639194666531</v>
+        <v>661.3454373401905</v>
       </c>
       <c r="X16" t="n">
-        <v>441.3551475957079</v>
+        <v>499.0613902693675</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.3551475957079</v>
+        <v>439.5880249494786</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5592,13 +5592,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M18" t="n">
         <v>802.5350401618138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N19" t="n">
-        <v>804.578023344525</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O19" t="n">
-        <v>967.282790386233</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5841,10 +5841,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,13 +5917,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,31 +6139,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>393.1040050097767</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388004</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6552,7 +6552,7 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1986.079025206788</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1986.079025206788</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835509</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1107.567702120448</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1765.220722740011</v>
       </c>
       <c r="N32" t="n">
-        <v>2188.485480692072</v>
+        <v>2293.032006377473</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.798174311471</v>
+        <v>2733.071607269802</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170063</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.73941204771</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.671367692972</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404863</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245263</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374203</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>337.0682132920807</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076225</v>
+        <v>612.8479737408633</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>799.1395520791273</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041659</v>
+        <v>982.3291861103364</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.785962625019</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273684</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400713</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045795</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027481</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599515</v>
@@ -6974,10 +6974,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7017,22 +7017,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,25 +7093,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222409</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960407</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838006</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,22 +7573,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,22 +7728,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>373.6791200510547</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>306.7311214244044</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,19 +8058,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>533.318215453991</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>162.912234287569</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>281.2999319572023</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>379.1327982191748</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>533.318215453991</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>162.912234287569</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8459,16 +8459,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,7 +8544,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>400.7288157213065</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9489,13 +9489,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>464.9323088406971</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>280.5807329993937</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10200,10 +10200,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>457.6168628059747</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>464.9323088406969</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10437,16 +10437,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449332</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,25 +10665,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,25 +11376,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>486.9652344155852</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>129.6677106501854</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>10.94604009521998</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>49.11012039408806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.126558819191729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>217.7891760981297</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>246.1061356947278</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.58043033762041</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>90.92399651010135</v>
       </c>
     </row>
     <row r="17">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>72132.87123734276</v>
+      </c>
+      <c r="C2" t="n">
+        <v>72132.87123734273</v>
+      </c>
+      <c r="D2" t="n">
         <v>72132.87123734271</v>
       </c>
-      <c r="C2" t="n">
-        <v>72132.87123734271</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72132.8712373427</v>
-      </c>
       <c r="E2" t="n">
-        <v>63743.60936976024</v>
+        <v>63743.60936976023</v>
       </c>
       <c r="F2" t="n">
         <v>63743.60936976025</v>
       </c>
       <c r="G2" t="n">
+        <v>72132.87123734271</v>
+      </c>
+      <c r="H2" t="n">
         <v>72132.87123734267</v>
       </c>
-      <c r="H2" t="n">
-        <v>72132.87123734273</v>
-      </c>
       <c r="I2" t="n">
-        <v>72132.8712373427</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="J2" t="n">
-        <v>72132.87123734254</v>
+        <v>72132.87123734261</v>
       </c>
       <c r="K2" t="n">
         <v>72132.87123734257</v>
       </c>
       <c r="L2" t="n">
-        <v>72132.87123734264</v>
+        <v>72132.87123734274</v>
       </c>
       <c r="M2" t="n">
-        <v>72132.87123734271</v>
+        <v>72132.8712373427</v>
       </c>
       <c r="N2" t="n">
-        <v>72132.87123734273</v>
+        <v>72132.87123734268</v>
       </c>
       <c r="O2" t="n">
-        <v>72132.87123734274</v>
+        <v>72132.8712373427</v>
       </c>
       <c r="P2" t="n">
         <v>72132.87123734271</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539675</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.4955237375</v>
+        <v>74084.49552373742</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373751</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
         <v>121843.4120153197</v>
@@ -26445,13 +26445,13 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701646</v>
       </c>
       <c r="M4" t="n">
+        <v>121843.4120153196</v>
+      </c>
+      <c r="N4" t="n">
         <v>121843.4120153197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153197</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343962.4814188374</v>
+        <v>-340814.1308320632</v>
       </c>
       <c r="C6" t="n">
-        <v>-161757.5331269815</v>
+        <v>-166955.4737980081</v>
       </c>
       <c r="D6" t="n">
-        <v>-166620.8154208567</v>
+        <v>-174357.1046442482</v>
       </c>
       <c r="E6" t="n">
-        <v>-175649.4673278623</v>
+        <v>-175859.1988745518</v>
       </c>
       <c r="F6" t="n">
-        <v>-63526.90585381778</v>
+        <v>-63736.6374005073</v>
       </c>
       <c r="G6" t="n">
         <v>-155305.6356301786</v>
       </c>
       <c r="H6" t="n">
-        <v>-107880.3100934966</v>
+        <v>-107880.3100934967</v>
       </c>
       <c r="I6" t="n">
         <v>-107880.3100934966</v>
       </c>
       <c r="J6" t="n">
-        <v>-320922.2276907824</v>
+        <v>-314405.942536209</v>
       </c>
       <c r="K6" t="n">
         <v>-114120.0784962797</v>
       </c>
       <c r="L6" t="n">
-        <v>-169302.6674309008</v>
+        <v>-173351.5046413729</v>
       </c>
       <c r="M6" t="n">
-        <v>-150081.1395531196</v>
+        <v>-151132.8345643078</v>
       </c>
       <c r="N6" t="n">
         <v>-107880.3100934966</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,28 +26808,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924593</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27430,13 +27430,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>88.30208180643146</v>
       </c>
       <c r="V2" t="n">
-        <v>52.33908932750666</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>61.51507786325736</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863153</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.64268061463363</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,7 +27591,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>238.2677619508714</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>173.6229683741961</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>59.50691280360223</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>36.0300542508066</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>145.5218557922885</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>60.8262844732532</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>224.544221566623</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>45.17758087636662</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>133.3503997809508</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C10" t="n">
-        <v>74.16669140285079</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N19" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28989,16 +28989,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29217,28 +29217,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668788</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>35.71049010668797</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P29" t="n">
-        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>43.49509683159988</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833222</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224731</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254176</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668788</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30271,13 +30271,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668751</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
@@ -30645,16 +30645,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,25 +30879,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5.636002634529465</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -33907,7 +33907,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>220.430950320563</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N2" t="n">
-        <v>157.6126300866203</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>440.9310934046791</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>77.54012143340232</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>128.0517622267106</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>230.0143068813907</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>440.9310934046791</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>77.54012143340232</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35179,16 +35179,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,7 +35264,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -36048,10 +36048,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N19" t="n">
-        <v>313.3380164832362</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>372.2447499518083</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36285,16 +36285,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.16725411684045</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>188.1936109500817</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851011</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36920,10 +36920,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>372.244749951808</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37072,22 +37072,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>541.7984217998109</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332434</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>464.4844572792977</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>82.70543230055085</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>189.529999709283</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345617</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37716,10 +37716,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>39.16725411683999</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>396.904887558667</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133878</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681948</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
